--- a/DataS1.xlsx
+++ b/DataS1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20378"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/xzw0070_auburn_edu/Documents/Manuscript/=submitted=/2019-insect_telomere_repeats [Bioaxiv2020]/=submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CurrentProjects\Telomere\2020_insectTelomere_sppData\2020_insectTelomere_sppData - Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{C52B29E7-2D35-40F1-A67D-94DB470D090A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{03F359A0-247D-418F-99D6-DC7941254D75}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8868E1FA-0609-45B8-A286-4E82D77A4CF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="624" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1" sheetId="2" r:id="rId1"/>
@@ -19,17 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableS1!$A$2:$Q$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1087,9 +1076,6 @@
     <t>Polistes fuscatus</t>
   </si>
   <si>
-    <t>POLFU</t>
-  </si>
-  <si>
     <t>Polistes dorsalis</t>
   </si>
   <si>
@@ -1781,6 +1767,10 @@
   </si>
   <si>
     <t>Scarce chaser dragonfly</t>
+  </si>
+  <si>
+    <t>POLFU</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1788,36 +1778,36 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1828,14 +1818,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1843,7 +1833,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1857,7 +1847,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1887,7 +1877,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1901,21 +1891,21 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2210,68 +2200,68 @@
   <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M67" sqref="M67"/>
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="11" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="33.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" style="11" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="27.75" customHeight="1">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="16.5" customHeight="1">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>547</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>558</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>559</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>0</v>
@@ -2292,7 +2282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="16.5" customHeight="1">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -2345,7 +2335,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="2" customFormat="1">
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
@@ -2398,7 +2388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="2" customFormat="1">
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
@@ -2451,7 +2441,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="2" customFormat="1">
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
@@ -2504,7 +2494,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="2" customFormat="1">
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>102</v>
       </c>
@@ -2557,7 +2547,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>48</v>
       </c>
@@ -2610,7 +2600,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="2" customFormat="1">
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>202</v>
       </c>
@@ -2663,7 +2653,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="2" customFormat="1">
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>58</v>
       </c>
@@ -2716,7 +2706,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1">
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>63</v>
       </c>
@@ -2769,7 +2759,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="2" customFormat="1">
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>69</v>
       </c>
@@ -2822,7 +2812,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="2" customFormat="1">
+    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>75</v>
       </c>
@@ -2875,7 +2865,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="2" customFormat="1">
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>83</v>
       </c>
@@ -2928,7 +2918,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="2" customFormat="1">
+    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>91</v>
       </c>
@@ -2981,7 +2971,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="2" customFormat="1">
+    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>99</v>
       </c>
@@ -3034,7 +3024,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>110</v>
       </c>
@@ -3087,7 +3077,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>116</v>
       </c>
@@ -3140,7 +3130,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>234</v>
       </c>
@@ -3193,7 +3183,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>239</v>
       </c>
@@ -3246,7 +3236,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>123</v>
       </c>
@@ -3296,10 +3286,10 @@
         <v>23.48</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>129</v>
       </c>
@@ -3313,7 +3303,7 @@
         <v>103</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>104</v>
@@ -3352,7 +3342,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>137</v>
       </c>
@@ -3405,7 +3395,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>247</v>
       </c>
@@ -3419,7 +3409,7 @@
         <v>103</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>104</v>
@@ -3458,7 +3448,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>142</v>
       </c>
@@ -3511,7 +3501,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>253</v>
       </c>
@@ -3564,7 +3554,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>148</v>
       </c>
@@ -3578,7 +3568,7 @@
         <v>103</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>145</v>
@@ -3617,7 +3607,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>262</v>
       </c>
@@ -3631,7 +3621,7 @@
         <v>103</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>258</v>
@@ -3670,7 +3660,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>155</v>
       </c>
@@ -3723,7 +3713,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>270</v>
       </c>
@@ -3734,10 +3724,10 @@
         <v>271</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>266</v>
@@ -3776,21 +3766,21 @@
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>274</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>275</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>266</v>
@@ -3829,7 +3819,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>280</v>
       </c>
@@ -3840,10 +3830,10 @@
         <v>281</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>104</v>
@@ -3882,7 +3872,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>162</v>
       </c>
@@ -3935,7 +3925,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>287</v>
       </c>
@@ -3946,10 +3936,10 @@
         <v>288</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>283</v>
@@ -3988,7 +3978,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>294</v>
       </c>
@@ -4041,7 +4031,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>297</v>
       </c>
@@ -4094,7 +4084,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>171</v>
       </c>
@@ -4147,7 +4137,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>299</v>
       </c>
@@ -4200,7 +4190,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>305</v>
       </c>
@@ -4211,10 +4201,10 @@
         <v>306</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>302</v>
@@ -4253,7 +4243,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>309</v>
       </c>
@@ -4264,10 +4254,10 @@
         <v>310</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>302</v>
@@ -4306,7 +4296,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>315</v>
       </c>
@@ -4317,10 +4307,10 @@
         <v>316</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>302</v>
@@ -4359,7 +4349,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>322</v>
       </c>
@@ -4370,10 +4360,10 @@
         <v>323</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>319</v>
@@ -4412,7 +4402,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>328</v>
       </c>
@@ -4423,10 +4413,10 @@
         <v>329</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>319</v>
@@ -4465,7 +4455,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>332</v>
       </c>
@@ -4476,10 +4466,10 @@
         <v>333</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>319</v>
@@ -4518,7 +4508,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>335</v>
       </c>
@@ -4529,10 +4519,10 @@
         <v>336</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>319</v>
@@ -4571,7 +4561,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>337</v>
       </c>
@@ -4582,10 +4572,10 @@
         <v>338</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>319</v>
@@ -4624,7 +4614,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>340</v>
       </c>
@@ -4632,13 +4622,13 @@
         <v>330</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>341</v>
+        <v>566</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>319</v>
@@ -4677,21 +4667,21 @@
         <v>334</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>330</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>319</v>
@@ -4730,21 +4720,21 @@
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>330</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>319</v>
@@ -4783,12 +4773,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>177</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>178</v>
@@ -4800,7 +4790,7 @@
         <v>103</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G50" s="12" t="s">
         <v>105</v>
@@ -4836,21 +4826,21 @@
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>352</v>
-      </c>
       <c r="D51" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>319</v>
@@ -4865,10 +4855,10 @@
         <v>174</v>
       </c>
       <c r="J51" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="K51" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="L51" s="3">
         <v>151</v>
@@ -4889,21 +4879,21 @@
         <v>324</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>357</v>
-      </c>
       <c r="D52" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>319</v>
@@ -4918,10 +4908,10 @@
         <v>174</v>
       </c>
       <c r="J52" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="L52" s="3">
         <v>151</v>
@@ -4942,21 +4932,21 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>362</v>
-      </c>
       <c r="D53" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>319</v>
@@ -4971,10 +4961,10 @@
         <v>174</v>
       </c>
       <c r="J53" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="K53" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="L53" s="3">
         <v>151</v>
@@ -4995,24 +4985,24 @@
         <v>324</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="D54" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="F54" s="12" t="s">
         <v>363</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>364</v>
       </c>
       <c r="G54" s="12" t="s">
         <v>105</v>
@@ -5024,10 +5014,10 @@
         <v>174</v>
       </c>
       <c r="J54" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="K54" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="L54" s="3">
         <v>65.34</v>
@@ -5045,27 +5035,27 @@
         <v>319.62</v>
       </c>
       <c r="Q54" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="6" t="s">
+      <c r="B55" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="D55" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="F55" s="12" t="s">
         <v>363</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>364</v>
       </c>
       <c r="G55" s="12" t="s">
         <v>105</v>
@@ -5077,10 +5067,10 @@
         <v>174</v>
       </c>
       <c r="J55" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="K55" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="L55" s="3">
         <v>73.510000000000005</v>
@@ -5098,27 +5088,27 @@
         <v>409.99</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="D56" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="F56" s="12" t="s">
         <v>363</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>364</v>
       </c>
       <c r="G56" s="12" t="s">
         <v>105</v>
@@ -5130,10 +5120,10 @@
         <v>174</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L56" s="3">
         <v>109.37</v>
@@ -5151,18 +5141,18 @@
         <v>146.25</v>
       </c>
       <c r="Q56" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="6" t="s">
+      <c r="C57" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>382</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>103</v>
@@ -5171,7 +5161,7 @@
         <v>103</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G57" s="12" t="s">
         <v>105</v>
@@ -5183,10 +5173,10 @@
         <v>174</v>
       </c>
       <c r="J57" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="K57" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="L57" s="3">
         <v>150</v>
@@ -5204,18 +5194,18 @@
         <v>248.85</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>103</v>
@@ -5224,7 +5214,7 @@
         <v>103</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G58" s="12" t="s">
         <v>105</v>
@@ -5236,10 +5226,10 @@
         <v>174</v>
       </c>
       <c r="J58" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="L58" s="3">
         <v>150</v>
@@ -5257,18 +5247,18 @@
         <v>18.41</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>103</v>
@@ -5277,7 +5267,7 @@
         <v>103</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G59" s="12" t="s">
         <v>105</v>
@@ -5289,10 +5279,10 @@
         <v>174</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L59" s="3">
         <v>125</v>
@@ -5310,27 +5300,27 @@
         <v>342.73</v>
       </c>
       <c r="Q59" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="6" t="s">
+      <c r="C60" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>397</v>
-      </c>
       <c r="D60" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G60" s="12" t="s">
         <v>105</v>
@@ -5342,10 +5332,10 @@
         <v>174</v>
       </c>
       <c r="J60" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="K60" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="L60" s="3">
         <v>150</v>
@@ -5363,27 +5353,27 @@
         <v>219.58</v>
       </c>
       <c r="Q60" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="6" t="s">
+      <c r="B61" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>400</v>
-      </c>
       <c r="D61" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G61" s="12" t="s">
         <v>105</v>
@@ -5395,10 +5385,10 @@
         <v>174</v>
       </c>
       <c r="J61" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="K61" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="L61" s="3">
         <v>150</v>
@@ -5416,27 +5406,27 @@
         <v>81.41</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>404</v>
-      </c>
       <c r="D62" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G62" s="12" t="s">
         <v>105</v>
@@ -5448,10 +5438,10 @@
         <v>174</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L62" s="3">
         <v>150</v>
@@ -5469,27 +5459,27 @@
         <v>42.13</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>407</v>
-      </c>
       <c r="D63" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G63" s="12" t="s">
         <v>105</v>
@@ -5501,10 +5491,10 @@
         <v>174</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L63" s="3">
         <v>150</v>
@@ -5522,27 +5512,27 @@
         <v>23.27</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>410</v>
-      </c>
       <c r="D64" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G64" s="12" t="s">
         <v>105</v>
@@ -5554,10 +5544,10 @@
         <v>174</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L64" s="3">
         <v>89.85</v>
@@ -5575,27 +5565,27 @@
         <v>89.72</v>
       </c>
       <c r="Q64" s="4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>413</v>
-      </c>
       <c r="D65" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G65" s="12" t="s">
         <v>105</v>
@@ -5607,10 +5597,10 @@
         <v>174</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L65" s="3">
         <v>150</v>
@@ -5628,27 +5618,27 @@
         <v>22.68</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>417</v>
-      </c>
       <c r="D66" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G66" s="12" t="s">
         <v>105</v>
@@ -5660,10 +5650,10 @@
         <v>174</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L66" s="3">
         <v>150</v>
@@ -5681,27 +5671,27 @@
         <v>20.079999999999998</v>
       </c>
       <c r="Q66" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="67" spans="1:17">
-      <c r="A67" s="6" t="s">
+      <c r="B67" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>420</v>
-      </c>
       <c r="D67" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G67" s="12" t="s">
         <v>105</v>
@@ -5713,10 +5703,10 @@
         <v>174</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L67" s="3">
         <v>150</v>
@@ -5734,27 +5724,27 @@
         <v>37.79</v>
       </c>
       <c r="Q67" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>422</v>
-      </c>
       <c r="D68" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G68" s="12" t="s">
         <v>105</v>
@@ -5766,10 +5756,10 @@
         <v>174</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L68" s="3">
         <v>150.71</v>
@@ -5787,27 +5777,27 @@
         <v>128.1</v>
       </c>
       <c r="Q68" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="69" spans="1:17">
-      <c r="A69" s="6" t="s">
+      <c r="B69" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>425</v>
-      </c>
       <c r="D69" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G69" s="12" t="s">
         <v>105</v>
@@ -5819,10 +5809,10 @@
         <v>174</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L69" s="3">
         <v>150</v>
@@ -5840,27 +5830,27 @@
         <v>38.409999999999997</v>
       </c>
       <c r="Q69" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="D70" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="F70" s="12" t="s">
         <v>427</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>428</v>
       </c>
       <c r="G70" s="12" t="s">
         <v>105</v>
@@ -5872,10 +5862,10 @@
         <v>174</v>
       </c>
       <c r="J70" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="K70" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>430</v>
       </c>
       <c r="L70" s="3">
         <v>138</v>
@@ -5893,24 +5883,24 @@
         <v>426.21020027569432</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>437</v>
-      </c>
       <c r="D71" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>319</v>
@@ -5925,10 +5915,10 @@
         <v>174</v>
       </c>
       <c r="J71" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="K71" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="L71" s="3">
         <v>151</v>
@@ -5949,21 +5939,21 @@
         <v>324</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>440</v>
-      </c>
       <c r="D72" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F72" s="12" t="s">
         <v>319</v>
@@ -5978,10 +5968,10 @@
         <v>174</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L72" s="3">
         <v>151</v>
@@ -6002,15 +5992,15 @@
         <v>324</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>445</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>446</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>103</v>
@@ -6019,7 +6009,7 @@
         <v>103</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G73" s="12" t="s">
         <v>105</v>
@@ -6031,10 +6021,10 @@
         <v>174</v>
       </c>
       <c r="J73" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="K73" s="3" t="s">
         <v>443</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>444</v>
       </c>
       <c r="L73" s="3">
         <v>100</v>
@@ -6052,42 +6042,42 @@
         <v>290.27999999999997</v>
       </c>
       <c r="Q73" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="74" spans="1:17">
-      <c r="A74" s="6" t="s">
+      <c r="C74" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="D74" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="F74" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="F74" s="12" t="s">
+      <c r="G74" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I74" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="G74" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="I74" s="12" t="s">
+      <c r="J74" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="K74" s="3" t="s">
         <v>451</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>452</v>
       </c>
       <c r="L74" s="3">
         <v>251</v>
@@ -6105,10 +6095,10 @@
         <v>924.05</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>224</v>
       </c>
@@ -6119,7 +6109,7 @@
         <v>225</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>220</v>
@@ -6161,24 +6151,24 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>220</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G76" s="12" t="s">
         <v>105</v>
@@ -6193,7 +6183,7 @@
         <v>222</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L76" s="3">
         <v>150.24</v>
@@ -6211,27 +6201,27 @@
         <v>110.2</v>
       </c>
       <c r="Q76" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="77" spans="1:17">
-      <c r="A77" s="6" t="s">
+      <c r="C77" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>466</v>
-      </c>
       <c r="D77" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>220</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G77" s="12" t="s">
         <v>105</v>
@@ -6243,10 +6233,10 @@
         <v>218</v>
       </c>
       <c r="J77" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="K77" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>464</v>
       </c>
       <c r="L77" s="3">
         <v>104.61</v>
@@ -6264,27 +6254,27 @@
         <v>424.5</v>
       </c>
       <c r="Q77" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="78" spans="1:17">
-      <c r="A78" s="6" t="s">
+      <c r="C78" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="D78" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E78" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E78" s="12" t="s">
+      <c r="F78" s="12" t="s">
         <v>469</v>
-      </c>
-      <c r="F78" s="12" t="s">
-        <v>470</v>
       </c>
       <c r="G78" s="12" t="s">
         <v>105</v>
@@ -6296,10 +6286,10 @@
         <v>218</v>
       </c>
       <c r="J78" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="K78" s="3" t="s">
         <v>471</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>472</v>
       </c>
       <c r="L78" s="3">
         <v>76.47</v>
@@ -6317,27 +6307,27 @@
         <v>67.599999999999994</v>
       </c>
       <c r="Q78" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="F79" s="12" t="s">
         <v>475</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="A79" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="F79" s="12" t="s">
-        <v>476</v>
       </c>
       <c r="G79" s="12" t="s">
         <v>105</v>
@@ -6349,10 +6339,10 @@
         <v>218</v>
       </c>
       <c r="J79" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="K79" s="3" t="s">
         <v>471</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>472</v>
       </c>
       <c r="L79" s="3">
         <v>125.23</v>
@@ -6370,27 +6360,27 @@
         <v>354.76</v>
       </c>
       <c r="Q79" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="F80" s="12" t="s">
         <v>479</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="A80" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="F80" s="12" t="s">
-        <v>480</v>
       </c>
       <c r="G80" s="12" t="s">
         <v>105</v>
@@ -6402,10 +6392,10 @@
         <v>218</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L80" s="3">
         <v>116.8</v>
@@ -6423,27 +6413,27 @@
         <v>30.14</v>
       </c>
       <c r="Q80" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="81" spans="1:17">
-      <c r="A81" s="6" t="s">
+      <c r="C81" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="D81" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="F81" s="12" t="s">
         <v>485</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>486</v>
       </c>
       <c r="G81" s="12" t="s">
         <v>105</v>
@@ -6455,10 +6445,10 @@
         <v>218</v>
       </c>
       <c r="J81" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="K81" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>488</v>
       </c>
       <c r="L81" s="3">
         <v>101</v>
@@ -6476,27 +6466,27 @@
         <v>213.14</v>
       </c>
       <c r="Q81" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="F82" s="12" t="s">
         <v>491</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
-      <c r="A82" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="F82" s="12" t="s">
-        <v>492</v>
       </c>
       <c r="G82" s="12" t="s">
         <v>105</v>
@@ -6508,10 +6498,10 @@
         <v>218</v>
       </c>
       <c r="J82" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="K82" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>488</v>
       </c>
       <c r="L82" s="3">
         <v>101</v>
@@ -6529,27 +6519,27 @@
         <v>23.23</v>
       </c>
       <c r="Q82" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="F83" s="12" t="s">
         <v>495</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
-      <c r="A83" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>496</v>
       </c>
       <c r="G83" s="12" t="s">
         <v>105</v>
@@ -6561,10 +6551,10 @@
         <v>218</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L83" s="3">
         <v>111.56</v>
@@ -6582,24 +6572,24 @@
         <v>544.99</v>
       </c>
       <c r="Q83" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="84" spans="1:17">
-      <c r="A84" s="6" t="s">
+      <c r="C84" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>505</v>
-      </c>
       <c r="D84" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F84" s="12" t="s">
         <v>118</v>
@@ -6614,10 +6604,10 @@
         <v>218</v>
       </c>
       <c r="J84" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="K84" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>503</v>
       </c>
       <c r="L84" s="3">
         <v>246.38</v>
@@ -6635,24 +6625,24 @@
         <v>477.13</v>
       </c>
       <c r="Q84" s="5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>509</v>
-      </c>
       <c r="D85" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F85" s="12" t="s">
         <v>118</v>
@@ -6667,10 +6657,10 @@
         <v>218</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L85" s="3">
         <v>150</v>
@@ -6688,12 +6678,12 @@
         <v>52.45</v>
       </c>
       <c r="Q85" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
         <v>510</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
-      <c r="A86" s="6" t="s">
-        <v>511</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>217</v>
@@ -6744,24 +6734,24 @@
         <v>186</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="D87" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="F87" s="12" t="s">
         <v>512</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="F87" s="12" t="s">
-        <v>513</v>
       </c>
       <c r="G87" s="12" t="s">
         <v>105</v>
@@ -6773,10 +6763,10 @@
         <v>182</v>
       </c>
       <c r="J87" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="K87" s="3" t="s">
         <v>514</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>515</v>
       </c>
       <c r="L87" s="3">
         <v>149.72</v>
@@ -6794,27 +6784,27 @@
         <v>127.31</v>
       </c>
       <c r="Q87" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="D88" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="F88" s="12" t="s">
         <v>512</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E88" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="F88" s="12" t="s">
-        <v>513</v>
       </c>
       <c r="G88" s="12" t="s">
         <v>105</v>
@@ -6826,10 +6816,10 @@
         <v>182</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L88" s="3">
         <v>63.16</v>
@@ -6847,24 +6837,24 @@
         <v>49.25</v>
       </c>
       <c r="Q88" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="D89" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F89" s="12" t="s">
         <v>173</v>
@@ -6879,10 +6869,10 @@
         <v>182</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L89" s="3">
         <v>101</v>
@@ -6900,24 +6890,24 @@
         <v>89.34</v>
       </c>
       <c r="Q89" s="4" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>529</v>
-      </c>
       <c r="D90" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F90" s="12" t="s">
         <v>173</v>
@@ -6932,10 +6922,10 @@
         <v>182</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L90" s="3">
         <v>149.5</v>
@@ -6953,24 +6943,24 @@
         <v>282.58</v>
       </c>
       <c r="Q90" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>533</v>
-      </c>
       <c r="D91" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F91" s="12" t="s">
         <v>173</v>
@@ -6985,10 +6975,10 @@
         <v>182</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L91" s="3">
         <v>148.35</v>
@@ -7006,18 +6996,18 @@
         <v>54.48</v>
       </c>
       <c r="Q91" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="92" spans="1:17">
-      <c r="A92" s="6" t="s">
+      <c r="C92" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>540</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>103</v>
@@ -7026,7 +7016,7 @@
         <v>103</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G92" s="12" t="s">
         <v>105</v>
@@ -7038,10 +7028,10 @@
         <v>182</v>
       </c>
       <c r="J92" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="K92" s="3" t="s">
         <v>537</v>
-      </c>
-      <c r="K92" s="3" t="s">
-        <v>538</v>
       </c>
       <c r="L92" s="3">
         <v>106</v>
@@ -7059,12 +7049,12 @@
         <v>27.5</v>
       </c>
       <c r="Q92" s="4" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>216</v>
@@ -7085,10 +7075,10 @@
         <v>105</v>
       </c>
       <c r="H93" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="I93" s="12" t="s">
         <v>542</v>
-      </c>
-      <c r="I93" s="12" t="s">
-        <v>543</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>187</v>
@@ -7115,19 +7105,19 @@
         <v>190</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="18" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="16" t="s">
         <v>561</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17">
-      <c r="A96" s="18" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="16" t="s">
-        <v>562</v>
       </c>
     </row>
   </sheetData>
